--- a/personal/kanayama/2017_新人研修QA表_金山.xlsx
+++ b/personal/kanayama/2017_新人研修QA表_金山.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -199,19 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブラウザのタブを切られた場合に、どのようにセッションを切ればいいのかわかりません</t>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プリペアドステートメントを用いて、select文でDBからデータを取得する方法が分かりません</t>
     <rPh sb="13" eb="14">
       <t>モチ</t>
@@ -615,7 +602,82 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同じPC内で行われるプロセス間通信で、ポート番号を識別して通信を行っているのかわかりません</t>
+    <t>ユーザーがログインしている状態でブラウザのタブを切られた場合に、ユーザーのログイン情報が入っているセッションをどのように切ればいいのかわかりません</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花城さん・大野さん</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オオノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに画像ファイルを保存すると、非常に重くなってしまうので、DBに画像のパスを保存して、別の場所に画像を保存したほうがいい、との回答を頂きました。</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じPC内で行われるプロセス間通信で、通信を行うアプリケーションの区別をポート番号を識別して通信を行っているのかどうかわかりません</t>
     <rPh sb="0" eb="1">
       <t>オナ</t>
     </rPh>
@@ -631,17 +693,101 @@
     <rPh sb="15" eb="17">
       <t>ツウシン</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="19" eb="21">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="42" eb="44">
       <t>シキベツ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="46" eb="48">
       <t>ツウシン</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="49" eb="50">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cygwin上で、gccコマンドを用いて実行ファイルの名前を変える方法がわかりませんでした</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gccコマンドのオプションoを用いて、「gcc　-o 作成したい実行ファイルの実行ファイル名　　コンパイルしたいファイルのファイル名」といったコマンドを記述したことで実行ファイルの名前を変えることができました</t>
+    <rPh sb="15" eb="16">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分で画面を分けたときと、分けなかったときのメリット・デメリットを考える</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1069,8 +1215,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:G40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1079,7 +1225,7 @@
     <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.875" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
     <col min="8" max="32" width="2.875" style="1" customWidth="1"/>
@@ -1117,7 +1263,7 @@
         <v>42898</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="11">
         <v>42898</v>
@@ -1130,7 +1276,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1138,7 +1284,7 @@
         <v>42898</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1153,14 +1299,18 @@
         <v>42898</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42909</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1168,11 +1318,17 @@
         <v>42899</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42909</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1183,7 +1339,7 @@
         <v>42899</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11">
         <v>42899</v>
@@ -1192,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1204,7 +1360,7 @@
         <v>42899</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="11">
         <v>42899</v>
@@ -1213,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1225,7 +1381,7 @@
         <v>42900</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11">
         <v>42900</v>
@@ -1234,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1246,7 +1402,7 @@
         <v>42900</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="11">
         <v>42900</v>
@@ -1255,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1267,7 +1423,7 @@
         <v>42900</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="11">
         <v>42900</v>
@@ -1276,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1288,12 +1444,12 @@
         <v>42901</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1305,14 +1461,14 @@
         <v>42906</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1320,22 +1476,32 @@
         <v>42909</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="11">
+        <v>42914</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11">
+        <v>42914</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1627,10 +1793,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LQA表（金山）&amp;R作成日6月23日
-更新日6月23日　</oddHeader>
+更新日7月3日　</oddHeader>
     <oddFooter>&amp;C&amp;P/ &amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/personal/kanayama/2017_新人研修QA表_金山.xlsx
+++ b/personal/kanayama/2017_新人研修QA表_金山.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -788,6 +788,140 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクセルにおいて、罫線を実線から点線に変える方法がわかりませんでした</t>
+    <rPh sb="9" eb="11">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セルの書式設定から、罫線タブの中の設定を変更することで解決できました</t>
+    <rPh sb="3" eb="5">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JVMのメモリ管理に関して、オプションでヒープ領域の初期ヒープと最大ヒープのサイズを決めることができますが、この２つの違いがよくわかりません</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷をする資料のページ数が膨大になってしまう場合、どのようなことに気をつければいいのでしょうか</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモを取った後にメモを見直すと、話の大事な部分が一部が抜けていたり、メモの内容が散らばっていたりしており、メモの取り方をどのように改善したらいいでしょうか</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カイゼン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1215,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1504,45 +1638,67 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="11">
+        <v>42920</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11">
+        <v>42920</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="11">
+        <v>42921</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="11">
+        <v>42923</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="11">
+        <v>42923</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
@@ -1793,10 +1949,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LQA表（金山）&amp;R作成日6月23日
-更新日7月3日　</oddHeader>
+    <oddHeader>&amp;LQA表（金山）&amp;R作成日2017年6月23日
+更新日2017年7月7日　</oddHeader>
     <oddFooter>&amp;C&amp;P/ &amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/personal/kanayama/2017_新人研修QA表_金山.xlsx
+++ b/personal/kanayama/2017_新人研修QA表_金山.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -922,6 +922,222 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花城さん</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期ヒープと最大ヒープのサイズを各々指定できるのは、ピーク時に一時的にそのメモリ量を利用できるようにしながらも、通常時は他のプログラムがメモリ領域を使用できるようにするため</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オノオノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分の説明したいところだけ、該当部分の資料を印刷する。但し、他の部分の説明を求められる可能性もあるので、1部は全範囲を印刷するのもいい。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花城さん・大野さん</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オオノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前知識が無い状態でメモを取って、議事録を起こすのは難しい。予め、以前の議事録などを参考にして事前知識を頭に入れてから部会等に参加するのが望ましい。
+また、聞き取った内容を忘れさせないようにするために、聞き取った後にすぐ議事録等の書類を作成するのがいい。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ブカイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1349,8 +1565,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1659,7 +1875,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1669,12 +1885,18 @@
       <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="11">
+        <v>42923</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1684,12 +1906,18 @@
       <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="11">
+        <v>42923</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1699,9 +1927,15 @@
       <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="11">
+        <v>42923</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1949,7 +2183,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LQA表（金山）&amp;R作成日2017年6月23日
 更新日2017年7月7日　</oddHeader>

--- a/personal/kanayama/2017_新人研修QA表_金山.xlsx
+++ b/personal/kanayama/2017_新人研修QA表_金山.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>質問日</t>
     <rPh sb="0" eb="2">
@@ -602,28 +602,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーがログインしている状態でブラウザのタブを切られた場合に、ユーザーのログイン情報が入っているセッションをどのように切ればいいのかわかりません</t>
-    <rPh sb="13" eb="15">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>花城さん・大野さん</t>
     <rPh sb="0" eb="1">
       <t>ハナ</t>
@@ -769,25 +747,6 @@
     </rPh>
     <rPh sb="93" eb="94">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分で画面を分けたときと、分けなかったときのメリット・デメリットを考える</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1138,6 +1097,577 @@
     </rPh>
     <rPh sb="118" eb="120">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なぜ使用するメモリ領域が連続していた方が好ましいのかわかりません</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用メモリが連続していないということは、未使用メモリ領域も不連続になっているということである。新たにメモリを確保するときに、連続したメモリ領域を走査、確保しようとする。未使用メモリ領域が存在する場合だと、条件に合うメモリ領域を探すのに時間が掛かってしまうため、パフォーマンスの低下に繋がる。
+したがって、使用メモリ領域は連続していた方が望ましい。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>フレンゾク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返り値、フィールドの無いメインクラスをJunitでどのようにテストをするのかが、わかりません。メインメソッド内のローカル変数をどのようにテストすればいいのでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本的に返り値・フィールドのないクラスはJunitではテストすることはできないが、テストクラス内の変数等を標準出力させる形でテストすることができる</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JMS送受信プログラムのテストで、PubSub方式でメッセージ受信プログラムのテストを行った際に、受信プログラムを実行中に送信プログラムを実行させる必要がありました。
+しかし、受信プログラムを実行中のままにしておくと、そこでプログラムが停止してしまって送信プログラムを実行できませんでした。どのように、同時にプログラムを実行させればいいのかわかりませんでした</t>
+    <rPh sb="3" eb="6">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受信プログラム実行するスレッドの他に、送信プログラムを実行するスレッドを生成することで、テストを行うことができました。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーがログインしている状態で正規の手順でログアウトせずに「ブラウザのタブを切られた」若しくは、「ブラウザが閉じられた」というイベントを検知して、再度最後に見ていたページにアクセスしようとするときに、強制的にログアウトさせてログインページに遷移させる方法がわかりません。</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSP・サーブレットで「ブラウザのタブを切られた」というイベントを検知するのは不可能なので、セッションを切ることができない。
+「ブラウザが閉じられた」をイベントを検知するのは、クッキーを使わないセッション管理では不可能。
+クッキーを用いた場合には、クッキーからログイン情報を取得できないようにすれば実現できる。具体的には、クッキーの有効期限を0秒に設定することで、ブラウザを閉じたときにクッキーの情報が無くなるので強制的にログアウトさせることができる。</t>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="155" eb="158">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="207" eb="210">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6月23日
+追記
+7月18日</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6月12日
+修正
+7月18日</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分で画面を分けたときと、分けなかったときのメリット・デメリットを考える
+追記
+同じJSPを使いまわすメリットとして挙げられるのは、新たにJSPを作成しなくて済むこと。デメリットとして、同じJSPを使いまわすので、条件分岐でブラウザに表示させるタイトルなどを区別する必要があり、コードが分かりづらくなる。メリットとデメリットを比較すると、コードが分かりづらいのでメンテナンス性が落ちるデメリットのほうが大きい。
+新しいJSP作った場合は、使いまわしたい部分（コード）を記述したJSPを作成し、includeタグで使いまわすことが可能なので、新しいJSPを作ったほうが好ましい</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リレーショナルDBにおいて、配列を格納する方法がわかりません</t>
+    <rPh sb="14" eb="16">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リレーショナルDBでは、一行の一カラムに構造を持ったデータは格納できず、単一のデータしか格納できない。
+そのためリレーショナルDBにデータを登録するには、配列内の1つ1つのデータを1件ずつ登録していくしかない。</t>
+    <rPh sb="12" eb="14">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1216,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1250,6 +1780,12 @@
     </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,8 +2101,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1605,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1626,22 +2162,28 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>42898</v>
+      <c r="B3" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42934</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="180" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1651,16 +2193,18 @@
       <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
-        <v>42909</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1674,14 +2218,14 @@
         <v>42909</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1702,7 +2246,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1723,7 +2267,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1744,7 +2288,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1765,7 +2309,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1826,14 +2370,14 @@
         <v>42909</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1841,7 +2385,7 @@
         <v>42914</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="11">
         <v>42914</v>
@@ -1850,11 +2394,11 @@
         <v>11</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1862,7 +2406,7 @@
         <v>42920</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="11">
         <v>42920</v>
@@ -1871,11 +2415,11 @@
         <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1883,20 +2427,20 @@
         <v>42921</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="11">
         <v>42923</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1904,20 +2448,20 @@
         <v>42923</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11">
         <v>42923</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1925,64 +2469,104 @@
         <v>42923</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11">
         <v>42923</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="11">
+        <v>42926</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="11">
+        <v>42926</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="11">
+        <v>42929</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11">
+        <v>42930</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="11">
+        <v>42930</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="11">
+        <v>42930</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="11">
+        <v>42937</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11">
+        <v>42937</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1993,7 +2577,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2004,7 +2588,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2015,7 +2599,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2026,7 +2610,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2037,7 +2621,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2048,7 +2632,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2059,7 +2643,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2070,7 +2654,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2081,7 +2665,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2092,7 +2676,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2103,7 +2687,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2114,7 +2698,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2125,7 +2709,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2136,7 +2720,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2147,7 +2731,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2158,7 +2742,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2169,7 +2753,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2183,10 +2767,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LQA表（金山）&amp;R作成日2017年6月23日
-更新日2017年7月7日　</oddHeader>
+更新日2017年7月21日　</oddHeader>
     <oddFooter>&amp;C&amp;P/ &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
